--- a/data_craw/quarter/balance_sheet_quarter/acb.xlsx
+++ b/data_craw/quarter/balance_sheet_quarter/acb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,50 +573,42 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5572625000000</v>
+        <v>5824836000000</v>
       </c>
       <c r="C4" t="n">
-        <v>6437812000000</v>
+        <v>6967918000000</v>
       </c>
       <c r="D4" t="n">
-        <v>5466150000000</v>
+        <v>6037588000000</v>
       </c>
       <c r="E4" t="n">
-        <v>5518509000000</v>
+        <v>6870892000000</v>
       </c>
       <c r="F4" t="n">
-        <v>5824836000000</v>
+        <v>7010081000000</v>
       </c>
       <c r="G4" t="n">
-        <v>6967918000000</v>
+        <v>7509877000000</v>
       </c>
       <c r="H4" t="n">
-        <v>6037588000000</v>
+        <v>6281931000000</v>
       </c>
       <c r="I4" t="n">
-        <v>6870892000000</v>
+        <v>7179996000000</v>
       </c>
       <c r="J4" t="n">
-        <v>7010081000000</v>
+        <v>6820742000000</v>
       </c>
       <c r="K4" t="n">
-        <v>7509877000000</v>
+        <v>8460892000000</v>
       </c>
       <c r="L4" t="n">
-        <v>6281931000000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7179996000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6820742000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8460892000000</v>
-      </c>
-      <c r="P4" t="n">
         <v>6654779000000</v>
       </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -672,50 +664,42 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5973123000000</v>
+        <v>12289157000000</v>
       </c>
       <c r="C7" t="n">
-        <v>10420306000000</v>
+        <v>16616798000000</v>
       </c>
       <c r="D7" t="n">
-        <v>12671154000000</v>
+        <v>20232572000000</v>
       </c>
       <c r="E7" t="n">
-        <v>20813912000000</v>
+        <v>21912320000000</v>
       </c>
       <c r="F7" t="n">
-        <v>12289157000000</v>
+        <v>33532941000000</v>
       </c>
       <c r="G7" t="n">
-        <v>16616798000000</v>
+        <v>32349574000000</v>
       </c>
       <c r="H7" t="n">
-        <v>20232572000000</v>
+        <v>18208130000000</v>
       </c>
       <c r="I7" t="n">
-        <v>21912320000000</v>
+        <v>11267755000000</v>
       </c>
       <c r="J7" t="n">
-        <v>33532941000000</v>
+        <v>7285530000000</v>
       </c>
       <c r="K7" t="n">
-        <v>32349574000000</v>
+        <v>13657531000000</v>
       </c>
       <c r="L7" t="n">
-        <v>18208130000000</v>
-      </c>
-      <c r="M7" t="n">
-        <v>11267755000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7285530000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>13657531000000</v>
-      </c>
-      <c r="P7" t="n">
         <v>6429413000000</v>
       </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -794,50 +778,42 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25612836000000</v>
+        <v>29838744000000</v>
       </c>
       <c r="C11" t="n">
-        <v>30341599000000</v>
+        <v>31671245000000</v>
       </c>
       <c r="D11" t="n">
-        <v>30650377000000</v>
+        <v>27746394000000</v>
       </c>
       <c r="E11" t="n">
-        <v>25079336000000</v>
+        <v>28988545000000</v>
       </c>
       <c r="F11" t="n">
-        <v>29838744000000</v>
+        <v>28675646000000</v>
       </c>
       <c r="G11" t="n">
-        <v>31671245000000</v>
+        <v>49818776000000</v>
       </c>
       <c r="H11" t="n">
-        <v>27746394000000</v>
+        <v>54337806000000</v>
       </c>
       <c r="I11" t="n">
-        <v>28988545000000</v>
+        <v>57122539000000</v>
       </c>
       <c r="J11" t="n">
-        <v>28675646000000</v>
+        <v>62584455000000</v>
       </c>
       <c r="K11" t="n">
-        <v>49818776000000</v>
+        <v>85971313000000</v>
       </c>
       <c r="L11" t="n">
-        <v>54337806000000</v>
-      </c>
-      <c r="M11" t="n">
-        <v>57122539000000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>62584455000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>85971313000000</v>
-      </c>
-      <c r="P11" t="n">
         <v>94638910000000</v>
       </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -847,50 +823,42 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19548057000000</v>
+        <v>20262389000000</v>
       </c>
       <c r="C12" t="n">
-        <v>19390796000000</v>
+        <v>23311116000000</v>
       </c>
       <c r="D12" t="n">
-        <v>20819910000000</v>
+        <v>22292014000000</v>
       </c>
       <c r="E12" t="n">
-        <v>18197321000000</v>
+        <v>21700725000000</v>
       </c>
       <c r="F12" t="n">
-        <v>20262389000000</v>
+        <v>22968645000000</v>
       </c>
       <c r="G12" t="n">
-        <v>23311116000000</v>
+        <v>43713230000000</v>
       </c>
       <c r="H12" t="n">
-        <v>22292014000000</v>
+        <v>51377086000000</v>
       </c>
       <c r="I12" t="n">
-        <v>21700725000000</v>
+        <v>53073665000000</v>
       </c>
       <c r="J12" t="n">
-        <v>22968645000000</v>
+        <v>60017908000000</v>
       </c>
       <c r="K12" t="n">
-        <v>43713230000000</v>
+        <v>82338762000000</v>
       </c>
       <c r="L12" t="n">
-        <v>51377086000000</v>
-      </c>
-      <c r="M12" t="n">
-        <v>53073665000000</v>
-      </c>
-      <c r="N12" t="n">
-        <v>60017908000000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>82338762000000</v>
-      </c>
-      <c r="P12" t="n">
         <v>85075679000000</v>
       </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -900,50 +868,42 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6165293000000</v>
+        <v>9976355000000</v>
       </c>
       <c r="C13" t="n">
-        <v>11051317000000</v>
+        <v>8360129000000</v>
       </c>
       <c r="D13" t="n">
-        <v>9901014000000</v>
+        <v>5454380000000</v>
       </c>
       <c r="E13" t="n">
-        <v>7282015000000</v>
+        <v>7287820000000</v>
       </c>
       <c r="F13" t="n">
-        <v>9976355000000</v>
+        <v>5707001000000</v>
       </c>
       <c r="G13" t="n">
-        <v>8360129000000</v>
+        <v>6105546000000</v>
       </c>
       <c r="H13" t="n">
-        <v>5454380000000</v>
+        <v>2960720000000</v>
       </c>
       <c r="I13" t="n">
-        <v>7287820000000</v>
+        <v>4048874000000</v>
       </c>
       <c r="J13" t="n">
-        <v>5707001000000</v>
+        <v>2616547000000</v>
       </c>
       <c r="K13" t="n">
-        <v>6105546000000</v>
+        <v>3682551000000</v>
       </c>
       <c r="L13" t="n">
-        <v>2960720000000</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4048874000000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2616547000000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>3682551000000</v>
-      </c>
-      <c r="P13" t="n">
         <v>9613231000000</v>
       </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1068,36 +1028,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-100514000000</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-100514000000</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-70547000000</v>
-      </c>
-      <c r="E19" t="n">
         <v>-400000000000</v>
       </c>
-      <c r="F19" t="n">
-        <v>-400000000000</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>-50000000000</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-50000000000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-50000000000</v>
+      </c>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>-50000000000</v>
-      </c>
-      <c r="O19" t="n">
-        <v>-50000000000</v>
-      </c>
-      <c r="P19" t="n">
-        <v>-50000000000</v>
-      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1107,50 +1059,42 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>792641000000</v>
+        <v>4143804000000</v>
       </c>
       <c r="C20" t="n">
-        <v>2985262000000</v>
+        <v>6167917000000</v>
       </c>
       <c r="D20" t="n">
-        <v>2035207000000</v>
+        <v>4419502000000</v>
       </c>
       <c r="E20" t="n">
-        <v>635958000000</v>
+        <v>10270741000000</v>
       </c>
       <c r="F20" t="n">
-        <v>4143804000000</v>
+        <v>10151989000000</v>
       </c>
       <c r="G20" t="n">
-        <v>6167917000000</v>
+        <v>11259731000000</v>
       </c>
       <c r="H20" t="n">
-        <v>4419502000000</v>
+        <v>5068428000000</v>
       </c>
       <c r="I20" t="n">
-        <v>10270741000000</v>
+        <v>1481310000000</v>
       </c>
       <c r="J20" t="n">
-        <v>10151989000000</v>
+        <v>1438382000000</v>
       </c>
       <c r="K20" t="n">
-        <v>11259731000000</v>
+        <v>1131327000000</v>
       </c>
       <c r="L20" t="n">
-        <v>5068428000000</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1481310000000</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1438382000000</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1131327000000</v>
-      </c>
-      <c r="P20" t="n">
         <v>1541928000000</v>
       </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1160,50 +1104,42 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>933861000000</v>
+        <v>4277852000000</v>
       </c>
       <c r="C21" t="n">
-        <v>3145903000000</v>
+        <v>6285763000000</v>
       </c>
       <c r="D21" t="n">
-        <v>2243213000000</v>
+        <v>4529892000000</v>
       </c>
       <c r="E21" t="n">
-        <v>776995000000</v>
+        <v>10375295000000</v>
       </c>
       <c r="F21" t="n">
-        <v>4277852000000</v>
+        <v>10239936000000</v>
       </c>
       <c r="G21" t="n">
-        <v>6285763000000</v>
+        <v>11325371000000</v>
       </c>
       <c r="H21" t="n">
-        <v>4529892000000</v>
+        <v>5159447000000</v>
       </c>
       <c r="I21" t="n">
-        <v>10375295000000</v>
+        <v>1683277000000</v>
       </c>
       <c r="J21" t="n">
-        <v>10239936000000</v>
+        <v>1641739000000</v>
       </c>
       <c r="K21" t="n">
-        <v>11325371000000</v>
+        <v>1320941000000</v>
       </c>
       <c r="L21" t="n">
-        <v>5159447000000</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1683277000000</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1641739000000</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1320941000000</v>
-      </c>
-      <c r="P21" t="n">
         <v>1699679000000</v>
       </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1213,48 +1149,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-141220000000</v>
+        <v>-134048000000</v>
       </c>
       <c r="C22" t="n">
-        <v>-160641000000</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-208006000000</v>
-      </c>
+        <v>-117846000000</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>-141037000000</v>
+        <v>-104554000000</v>
       </c>
       <c r="F22" t="n">
-        <v>-134048000000</v>
+        <v>-87947000000</v>
       </c>
       <c r="G22" t="n">
-        <v>-117846000000</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
+        <v>-65640000000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-91019000000</v>
+      </c>
       <c r="I22" t="n">
-        <v>-104554000000</v>
+        <v>-201967000000</v>
       </c>
       <c r="J22" t="n">
-        <v>-87947000000</v>
+        <v>-203357000000</v>
       </c>
       <c r="K22" t="n">
-        <v>-65640000000</v>
+        <v>-189614000000</v>
       </c>
       <c r="L22" t="n">
-        <v>-91019000000</v>
-      </c>
-      <c r="M22" t="n">
-        <v>-201967000000</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-203357000000</v>
-      </c>
-      <c r="O22" t="n">
-        <v>-189614000000</v>
-      </c>
-      <c r="P22" t="n">
         <v>-157751000000</v>
       </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1264,48 +1192,42 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>48709000000</v>
+        <v>42679000000</v>
       </c>
       <c r="C23" t="n">
-        <v>87753000000</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>54473000000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>135503000000</v>
+      </c>
       <c r="E23" t="n">
-        <v>129009000000</v>
+        <v>82038000000</v>
       </c>
       <c r="F23" t="n">
-        <v>42679000000</v>
+        <v>63982000000</v>
       </c>
       <c r="G23" t="n">
-        <v>54473000000</v>
+        <v>226545000000</v>
       </c>
       <c r="H23" t="n">
-        <v>135503000000</v>
+        <v>92408000000</v>
       </c>
       <c r="I23" t="n">
-        <v>82038000000</v>
+        <v>91556000000</v>
       </c>
       <c r="J23" t="n">
-        <v>63982000000</v>
+        <v>67174000000</v>
       </c>
       <c r="K23" t="n">
-        <v>226545000000</v>
+        <v>100072000000</v>
       </c>
       <c r="L23" t="n">
-        <v>92408000000</v>
-      </c>
-      <c r="M23" t="n">
-        <v>91556000000</v>
-      </c>
-      <c r="N23" t="n">
-        <v>67174000000</v>
-      </c>
-      <c r="O23" t="n">
-        <v>100072000000</v>
-      </c>
-      <c r="P23" t="n">
         <v>395042000000</v>
       </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1453,48 +1375,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>151891000000</v>
+        <v>97963000000</v>
       </c>
       <c r="C30" t="n">
-        <v>97884000000</v>
-      </c>
-      <c r="D30" t="n">
-        <v>97884000000</v>
-      </c>
+        <v>99489000000</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>97895000000</v>
+        <v>87912000000</v>
       </c>
       <c r="F30" t="n">
-        <v>97963000000</v>
+        <v>88068000000</v>
       </c>
       <c r="G30" t="n">
-        <v>99489000000</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
+        <v>171925000000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>207771000000</v>
+      </c>
       <c r="I30" t="n">
-        <v>87912000000</v>
+        <v>158000000000</v>
       </c>
       <c r="J30" t="n">
-        <v>88068000000</v>
+        <v>154549000000</v>
       </c>
       <c r="K30" t="n">
-        <v>171925000000</v>
+        <v>146814000000</v>
       </c>
       <c r="L30" t="n">
-        <v>207771000000</v>
-      </c>
-      <c r="M30" t="n">
-        <v>158000000000</v>
-      </c>
-      <c r="N30" t="n">
-        <v>154549000000</v>
-      </c>
-      <c r="O30" t="n">
-        <v>146814000000</v>
-      </c>
-      <c r="P30" t="n">
         <v>141148000000</v>
       </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1527,28 +1441,20 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>933000000</v>
-      </c>
-      <c r="C32" t="n">
         <v>902000000</v>
       </c>
-      <c r="D32" t="n">
-        <v>902000000</v>
-      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>902000000</v>
+        <v>856000000</v>
       </c>
       <c r="F32" t="n">
-        <v>902000000</v>
+        <v>856000000</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="n">
-        <v>856000000</v>
-      </c>
-      <c r="J32" t="n">
-        <v>856000000</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -1564,30 +1470,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>465000000</v>
+        <v>539000000</v>
       </c>
       <c r="C33" t="n">
-        <v>539000000</v>
-      </c>
-      <c r="D33" t="n">
-        <v>539000000</v>
-      </c>
+        <v>2111000000</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>539000000</v>
+        <v>2111000000</v>
       </c>
       <c r="F33" t="n">
-        <v>539000000</v>
-      </c>
-      <c r="G33" t="n">
         <v>2111000000</v>
       </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="n">
-        <v>2111000000</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2111000000</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -1603,7 +1501,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155827000000</v>
+        <v>101827000000</v>
       </c>
       <c r="C34" t="n">
         <v>101827000000</v>
@@ -1618,35 +1516,27 @@
         <v>101827000000</v>
       </c>
       <c r="G34" t="n">
-        <v>101827000000</v>
+        <v>299317000000</v>
       </c>
       <c r="H34" t="n">
-        <v>101827000000</v>
+        <v>309837000000</v>
       </c>
       <c r="I34" t="n">
-        <v>101827000000</v>
+        <v>309337000000</v>
       </c>
       <c r="J34" t="n">
-        <v>101827000000</v>
+        <v>309337000000</v>
       </c>
       <c r="K34" t="n">
-        <v>299317000000</v>
+        <v>303387000000</v>
       </c>
       <c r="L34" t="n">
-        <v>309837000000</v>
-      </c>
-      <c r="M34" t="n">
-        <v>309337000000</v>
-      </c>
-      <c r="N34" t="n">
-        <v>309337000000</v>
-      </c>
-      <c r="O34" t="n">
         <v>303387000000</v>
       </c>
-      <c r="P34" t="n">
-        <v>303387000000</v>
-      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1702,48 +1592,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-5334000000</v>
+        <v>-5305000000</v>
       </c>
       <c r="C37" t="n">
-        <v>-5384000000</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-5384000000</v>
-      </c>
+        <v>-5305000000</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>-5373000000</v>
+        <v>-16882000000</v>
       </c>
       <c r="F37" t="n">
-        <v>-5305000000</v>
+        <v>-16726000000</v>
       </c>
       <c r="G37" t="n">
-        <v>-5305000000</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
+        <v>-127392000000</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-102066000000</v>
+      </c>
       <c r="I37" t="n">
-        <v>-16882000000</v>
+        <v>-151337000000</v>
       </c>
       <c r="J37" t="n">
-        <v>-16726000000</v>
+        <v>-154788000000</v>
       </c>
       <c r="K37" t="n">
-        <v>-127392000000</v>
+        <v>-156573000000</v>
       </c>
       <c r="L37" t="n">
-        <v>-102066000000</v>
-      </c>
-      <c r="M37" t="n">
-        <v>-151337000000</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-154788000000</v>
-      </c>
-      <c r="O37" t="n">
-        <v>-156573000000</v>
-      </c>
-      <c r="P37" t="n">
         <v>-162239000000</v>
       </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1753,50 +1635,42 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3490743000000</v>
+        <v>3729438000000</v>
       </c>
       <c r="C38" t="n">
-        <v>3770219000000</v>
+        <v>3782753000000</v>
       </c>
       <c r="D38" t="n">
-        <v>3772593000000</v>
+        <v>3720662000000</v>
       </c>
       <c r="E38" t="n">
-        <v>3756172000000</v>
+        <v>3703279000000</v>
       </c>
       <c r="F38" t="n">
-        <v>3729438000000</v>
+        <v>3646321000000</v>
       </c>
       <c r="G38" t="n">
-        <v>3782753000000</v>
+        <v>3762548000000</v>
       </c>
       <c r="H38" t="n">
-        <v>3720662000000</v>
+        <v>3678381000000</v>
       </c>
       <c r="I38" t="n">
-        <v>3703279000000</v>
+        <v>3625120000000</v>
       </c>
       <c r="J38" t="n">
-        <v>3646321000000</v>
+        <v>3733847000000</v>
       </c>
       <c r="K38" t="n">
-        <v>3762548000000</v>
+        <v>3981376000000</v>
       </c>
       <c r="L38" t="n">
-        <v>3678381000000</v>
-      </c>
-      <c r="M38" t="n">
-        <v>3625120000000</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3733847000000</v>
-      </c>
-      <c r="O38" t="n">
-        <v>3981376000000</v>
-      </c>
-      <c r="P38" t="n">
         <v>4127353000000</v>
       </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1806,50 +1680,42 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2662187000000</v>
+        <v>2649067000000</v>
       </c>
       <c r="C39" t="n">
-        <v>2721100000000</v>
+        <v>2716915000000</v>
       </c>
       <c r="D39" t="n">
-        <v>2729405000000</v>
+        <v>2664580000000</v>
       </c>
       <c r="E39" t="n">
-        <v>2687750000000</v>
+        <v>2628026000000</v>
       </c>
       <c r="F39" t="n">
-        <v>2649067000000</v>
+        <v>2581210000000</v>
       </c>
       <c r="G39" t="n">
-        <v>2716915000000</v>
+        <v>2685070000000</v>
       </c>
       <c r="H39" t="n">
-        <v>2664580000000</v>
+        <v>2641814000000</v>
       </c>
       <c r="I39" t="n">
-        <v>2628026000000</v>
+        <v>2601457000000</v>
       </c>
       <c r="J39" t="n">
-        <v>2581210000000</v>
+        <v>2665262000000</v>
       </c>
       <c r="K39" t="n">
-        <v>2685070000000</v>
+        <v>2849732000000</v>
       </c>
       <c r="L39" t="n">
-        <v>2641814000000</v>
-      </c>
-      <c r="M39" t="n">
-        <v>2601457000000</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2665262000000</v>
-      </c>
-      <c r="O39" t="n">
-        <v>2849732000000</v>
-      </c>
-      <c r="P39" t="n">
         <v>2966929000000</v>
       </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1859,50 +1725,42 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4618397000000</v>
+        <v>4817348000000</v>
       </c>
       <c r="C40" t="n">
-        <v>4737359000000</v>
+        <v>4949479000000</v>
       </c>
       <c r="D40" t="n">
-        <v>4773518000000</v>
+        <v>4950615000000</v>
       </c>
       <c r="E40" t="n">
-        <v>4794622000000</v>
+        <v>4922943000000</v>
       </c>
       <c r="F40" t="n">
-        <v>4817348000000</v>
+        <v>4951513000000</v>
       </c>
       <c r="G40" t="n">
-        <v>4949479000000</v>
+        <v>5123414000000</v>
       </c>
       <c r="H40" t="n">
-        <v>4950615000000</v>
+        <v>5137118000000</v>
       </c>
       <c r="I40" t="n">
-        <v>4922943000000</v>
+        <v>5155203000000</v>
       </c>
       <c r="J40" t="n">
-        <v>4951513000000</v>
+        <v>5274221000000</v>
       </c>
       <c r="K40" t="n">
-        <v>5123414000000</v>
+        <v>5523787000000</v>
       </c>
       <c r="L40" t="n">
-        <v>5137118000000</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5155203000000</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5274221000000</v>
-      </c>
-      <c r="O40" t="n">
-        <v>5523787000000</v>
-      </c>
-      <c r="P40" t="n">
         <v>5645804000000</v>
       </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -1912,50 +1770,42 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-1956210000000</v>
+        <v>-2168281000000</v>
       </c>
       <c r="C41" t="n">
-        <v>-2016259000000</v>
+        <v>-2232564000000</v>
       </c>
       <c r="D41" t="n">
-        <v>-2044113000000</v>
+        <v>-2286035000000</v>
       </c>
       <c r="E41" t="n">
-        <v>-2106872000000</v>
+        <v>-2294917000000</v>
       </c>
       <c r="F41" t="n">
-        <v>-2168281000000</v>
+        <v>-2370303000000</v>
       </c>
       <c r="G41" t="n">
-        <v>-2232564000000</v>
+        <v>-2438344000000</v>
       </c>
       <c r="H41" t="n">
-        <v>-2286035000000</v>
+        <v>-2495304000000</v>
       </c>
       <c r="I41" t="n">
-        <v>-2294917000000</v>
+        <v>-2553746000000</v>
       </c>
       <c r="J41" t="n">
-        <v>-2370303000000</v>
+        <v>-2608959000000</v>
       </c>
       <c r="K41" t="n">
-        <v>-2438344000000</v>
+        <v>-2674055000000</v>
       </c>
       <c r="L41" t="n">
-        <v>-2495304000000</v>
-      </c>
-      <c r="M41" t="n">
-        <v>-2553746000000</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-2608959000000</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-2674055000000</v>
-      </c>
-      <c r="P41" t="n">
         <v>-2678875000000</v>
       </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -2034,50 +1884,42 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>828556000000</v>
+        <v>1080371000000</v>
       </c>
       <c r="C45" t="n">
-        <v>1049119000000</v>
+        <v>1065838000000</v>
       </c>
       <c r="D45" t="n">
-        <v>1043188000000</v>
+        <v>1056082000000</v>
       </c>
       <c r="E45" t="n">
-        <v>1068422000000</v>
+        <v>1075253000000</v>
       </c>
       <c r="F45" t="n">
-        <v>1080371000000</v>
+        <v>1065111000000</v>
       </c>
       <c r="G45" t="n">
-        <v>1065838000000</v>
+        <v>1077478000000</v>
       </c>
       <c r="H45" t="n">
-        <v>1056082000000</v>
+        <v>1036567000000</v>
       </c>
       <c r="I45" t="n">
-        <v>1075253000000</v>
+        <v>1023663000000</v>
       </c>
       <c r="J45" t="n">
-        <v>1065111000000</v>
+        <v>1068585000000</v>
       </c>
       <c r="K45" t="n">
-        <v>1077478000000</v>
+        <v>1131644000000</v>
       </c>
       <c r="L45" t="n">
-        <v>1036567000000</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1023663000000</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1068585000000</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1131644000000</v>
-      </c>
-      <c r="P45" t="n">
         <v>1160424000000</v>
       </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -2087,50 +1929,42 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1173196000000</v>
+        <v>1491242000000</v>
       </c>
       <c r="C46" t="n">
-        <v>1409414000000</v>
+        <v>1495882000000</v>
       </c>
       <c r="D46" t="n">
-        <v>1419069000000</v>
+        <v>1504321000000</v>
       </c>
       <c r="E46" t="n">
-        <v>1460815000000</v>
+        <v>1541732000000</v>
       </c>
       <c r="F46" t="n">
-        <v>1491242000000</v>
+        <v>1549500000000</v>
       </c>
       <c r="G46" t="n">
-        <v>1495882000000</v>
+        <v>1579813000000</v>
       </c>
       <c r="H46" t="n">
-        <v>1504321000000</v>
+        <v>1557228000000</v>
       </c>
       <c r="I46" t="n">
-        <v>1541732000000</v>
+        <v>1562414000000</v>
       </c>
       <c r="J46" t="n">
-        <v>1549500000000</v>
+        <v>1626496000000</v>
       </c>
       <c r="K46" t="n">
-        <v>1579813000000</v>
+        <v>1709488000000</v>
       </c>
       <c r="L46" t="n">
-        <v>1557228000000</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1562414000000</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1626496000000</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1709488000000</v>
-      </c>
-      <c r="P46" t="n">
         <v>1757307000000</v>
       </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -2140,50 +1974,42 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-344640000000</v>
+        <v>-410871000000</v>
       </c>
       <c r="C47" t="n">
-        <v>-360295000000</v>
+        <v>-430044000000</v>
       </c>
       <c r="D47" t="n">
-        <v>-375881000000</v>
+        <v>-448239000000</v>
       </c>
       <c r="E47" t="n">
-        <v>-392393000000</v>
+        <v>-466479000000</v>
       </c>
       <c r="F47" t="n">
-        <v>-410871000000</v>
+        <v>-484389000000</v>
       </c>
       <c r="G47" t="n">
-        <v>-430044000000</v>
+        <v>-502335000000</v>
       </c>
       <c r="H47" t="n">
-        <v>-448239000000</v>
+        <v>-520661000000</v>
       </c>
       <c r="I47" t="n">
-        <v>-466479000000</v>
+        <v>-538751000000</v>
       </c>
       <c r="J47" t="n">
-        <v>-484389000000</v>
+        <v>-557911000000</v>
       </c>
       <c r="K47" t="n">
-        <v>-502335000000</v>
+        <v>-577844000000</v>
       </c>
       <c r="L47" t="n">
-        <v>-520661000000</v>
-      </c>
-      <c r="M47" t="n">
-        <v>-538751000000</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-557911000000</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-577844000000</v>
-      </c>
-      <c r="P47" t="n">
         <v>-596883000000</v>
       </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -2262,22 +2088,22 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>222972000000</v>
+        <v>356499000000</v>
       </c>
       <c r="C51" t="n">
-        <v>361676000000</v>
+        <v>348778000000</v>
       </c>
       <c r="D51" t="n">
-        <v>359950000000</v>
+        <v>216027000000</v>
       </c>
       <c r="E51" t="n">
-        <v>358225000000</v>
+        <v>216027000000</v>
       </c>
       <c r="F51" t="n">
-        <v>356499000000</v>
+        <v>216027000000</v>
       </c>
       <c r="G51" t="n">
-        <v>348778000000</v>
+        <v>216027000000</v>
       </c>
       <c r="H51" t="n">
         <v>216027000000</v>
@@ -2286,26 +2112,18 @@
         <v>216027000000</v>
       </c>
       <c r="J51" t="n">
-        <v>216027000000</v>
+        <v>177005000000</v>
       </c>
       <c r="K51" t="n">
-        <v>216027000000</v>
+        <v>177005000000</v>
       </c>
       <c r="L51" t="n">
-        <v>216027000000</v>
-      </c>
-      <c r="M51" t="n">
-        <v>216027000000</v>
-      </c>
-      <c r="N51" t="n">
         <v>177005000000</v>
       </c>
-      <c r="O51" t="n">
-        <v>177005000000</v>
-      </c>
-      <c r="P51" t="n">
-        <v>177005000000</v>
-      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -2315,50 +2133,42 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>225538000000</v>
+        <v>364877000000</v>
       </c>
       <c r="C52" t="n">
-        <v>364877000000</v>
+        <v>356358000000</v>
       </c>
       <c r="D52" t="n">
-        <v>364877000000</v>
+        <v>216519000000</v>
       </c>
       <c r="E52" t="n">
-        <v>364877000000</v>
+        <v>216027000000</v>
       </c>
       <c r="F52" t="n">
-        <v>364877000000</v>
+        <v>216027000000</v>
       </c>
       <c r="G52" t="n">
-        <v>356358000000</v>
+        <v>216027000000</v>
       </c>
       <c r="H52" t="n">
-        <v>216519000000</v>
+        <v>216027000000</v>
       </c>
       <c r="I52" t="n">
         <v>216027000000</v>
       </c>
       <c r="J52" t="n">
-        <v>216027000000</v>
+        <v>177005000000</v>
       </c>
       <c r="K52" t="n">
-        <v>216027000000</v>
+        <v>177005000000</v>
       </c>
       <c r="L52" t="n">
-        <v>216027000000</v>
-      </c>
-      <c r="M52" t="n">
-        <v>216027000000</v>
-      </c>
-      <c r="N52" t="n">
         <v>177005000000</v>
       </c>
-      <c r="O52" t="n">
-        <v>177005000000</v>
-      </c>
-      <c r="P52" t="n">
-        <v>177005000000</v>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -2368,26 +2178,18 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-2566000000</v>
+        <v>-8378000000</v>
       </c>
       <c r="C53" t="n">
-        <v>-3201000000</v>
+        <v>-7580000000</v>
       </c>
       <c r="D53" t="n">
-        <v>-4927000000</v>
-      </c>
-      <c r="E53" t="n">
-        <v>-6652000000</v>
-      </c>
-      <c r="F53" t="n">
-        <v>-8378000000</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-7580000000</v>
-      </c>
-      <c r="H53" t="n">
         <v>-492000000</v>
       </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2405,50 +2207,42 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6777763000000</v>
+        <v>6087799000000</v>
       </c>
       <c r="C54" t="n">
-        <v>6890916000000</v>
+        <v>6893097000000</v>
       </c>
       <c r="D54" t="n">
-        <v>6019941000000</v>
+        <v>7258052000000</v>
       </c>
       <c r="E54" t="n">
-        <v>5251670000000</v>
+        <v>6787651000000</v>
       </c>
       <c r="F54" t="n">
-        <v>6087799000000</v>
+        <v>6478715000000</v>
       </c>
       <c r="G54" t="n">
-        <v>6893097000000</v>
+        <v>6929387000000</v>
       </c>
       <c r="H54" t="n">
-        <v>7258052000000</v>
+        <v>7710713000000</v>
       </c>
       <c r="I54" t="n">
-        <v>6787651000000</v>
+        <v>8056006000000</v>
       </c>
       <c r="J54" t="n">
-        <v>6478715000000</v>
+        <v>10924119000000</v>
       </c>
       <c r="K54" t="n">
-        <v>6929387000000</v>
+        <v>9857553000000</v>
       </c>
       <c r="L54" t="n">
-        <v>7710713000000</v>
-      </c>
-      <c r="M54" t="n">
-        <v>8056006000000</v>
-      </c>
-      <c r="N54" t="n">
-        <v>10924119000000</v>
-      </c>
-      <c r="O54" t="n">
-        <v>9857553000000</v>
-      </c>
-      <c r="P54" t="n">
         <v>11290811000000</v>
       </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
@@ -2458,50 +2252,42 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4226772000000</v>
+        <v>3413452000000</v>
       </c>
       <c r="C55" t="n">
-        <v>3740459000000</v>
+        <v>3045690000000</v>
       </c>
       <c r="D55" t="n">
-        <v>3434944000000</v>
+        <v>3612343000000</v>
       </c>
       <c r="E55" t="n">
-        <v>2983910000000</v>
+        <v>3350889000000</v>
       </c>
       <c r="F55" t="n">
-        <v>3413452000000</v>
+        <v>3184991000000</v>
       </c>
       <c r="G55" t="n">
-        <v>3045690000000</v>
+        <v>3023499000000</v>
       </c>
       <c r="H55" t="n">
-        <v>3612343000000</v>
+        <v>3819758000000</v>
       </c>
       <c r="I55" t="n">
-        <v>3350889000000</v>
+        <v>4267323000000</v>
       </c>
       <c r="J55" t="n">
-        <v>3184991000000</v>
+        <v>6925993000000</v>
       </c>
       <c r="K55" t="n">
-        <v>3023499000000</v>
+        <v>4756992000000</v>
       </c>
       <c r="L55" t="n">
-        <v>3819758000000</v>
-      </c>
-      <c r="M55" t="n">
-        <v>4267323000000</v>
-      </c>
-      <c r="N55" t="n">
-        <v>6925993000000</v>
-      </c>
-      <c r="O55" t="n">
-        <v>4756992000000</v>
-      </c>
-      <c r="P55" t="n">
         <v>5784498000000</v>
       </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -2511,50 +2297,42 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3043265000000</v>
+        <v>3042487000000</v>
       </c>
       <c r="C56" t="n">
-        <v>3676311000000</v>
+        <v>3683207000000</v>
       </c>
       <c r="D56" t="n">
-        <v>3045171000000</v>
+        <v>3071228000000</v>
       </c>
       <c r="E56" t="n">
-        <v>2670659000000</v>
+        <v>2721561000000</v>
       </c>
       <c r="F56" t="n">
-        <v>3042487000000</v>
+        <v>2590792000000</v>
       </c>
       <c r="G56" t="n">
-        <v>3683207000000</v>
+        <v>3171877000000</v>
       </c>
       <c r="H56" t="n">
-        <v>3071228000000</v>
+        <v>3033370000000</v>
       </c>
       <c r="I56" t="n">
-        <v>2721561000000</v>
+        <v>2965572000000</v>
       </c>
       <c r="J56" t="n">
-        <v>2590792000000</v>
+        <v>3077692000000</v>
       </c>
       <c r="K56" t="n">
-        <v>3171877000000</v>
+        <v>4089550000000</v>
       </c>
       <c r="L56" t="n">
-        <v>3033370000000</v>
-      </c>
-      <c r="M56" t="n">
-        <v>2965572000000</v>
-      </c>
-      <c r="N56" t="n">
-        <v>3077692000000</v>
-      </c>
-      <c r="O56" t="n">
-        <v>4089550000000</v>
-      </c>
-      <c r="P56" t="n">
         <v>4420150000000</v>
       </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -2564,50 +2342,42 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>89922000000</v>
+        <v>52471000000</v>
       </c>
       <c r="C57" t="n">
-        <v>23041000000</v>
+        <v>50724000000</v>
       </c>
       <c r="D57" t="n">
-        <v>37642000000</v>
+        <v>139775000000</v>
       </c>
       <c r="E57" t="n">
-        <v>58337000000</v>
+        <v>71570000000</v>
       </c>
       <c r="F57" t="n">
-        <v>52471000000</v>
+        <v>117331000000</v>
       </c>
       <c r="G57" t="n">
-        <v>50724000000</v>
+        <v>44370000000</v>
       </c>
       <c r="H57" t="n">
-        <v>139775000000</v>
+        <v>200522000000</v>
       </c>
       <c r="I57" t="n">
-        <v>71570000000</v>
+        <v>133246000000</v>
       </c>
       <c r="J57" t="n">
-        <v>117331000000</v>
+        <v>111714000000</v>
       </c>
       <c r="K57" t="n">
-        <v>44370000000</v>
+        <v>63966000000</v>
       </c>
       <c r="L57" t="n">
-        <v>200522000000</v>
-      </c>
-      <c r="M57" t="n">
-        <v>133246000000</v>
-      </c>
-      <c r="N57" t="n">
-        <v>111714000000</v>
-      </c>
-      <c r="O57" t="n">
-        <v>63966000000</v>
-      </c>
-      <c r="P57" t="n">
         <v>151850000000</v>
       </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -2617,50 +2387,42 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1045911000000</v>
+        <v>1007602000000</v>
       </c>
       <c r="C58" t="n">
-        <v>1054539000000</v>
+        <v>1115297000000</v>
       </c>
       <c r="D58" t="n">
-        <v>958611000000</v>
+        <v>1028936000000</v>
       </c>
       <c r="E58" t="n">
-        <v>982682000000</v>
+        <v>1005298000000</v>
       </c>
       <c r="F58" t="n">
-        <v>1007602000000</v>
+        <v>922778000000</v>
       </c>
       <c r="G58" t="n">
-        <v>1115297000000</v>
+        <v>869602000000</v>
       </c>
       <c r="H58" t="n">
-        <v>1028936000000</v>
+        <v>837134000000</v>
       </c>
       <c r="I58" t="n">
-        <v>1005298000000</v>
+        <v>868717000000</v>
       </c>
       <c r="J58" t="n">
-        <v>922778000000</v>
+        <v>987493000000</v>
       </c>
       <c r="K58" t="n">
-        <v>869602000000</v>
+        <v>1143212000000</v>
       </c>
       <c r="L58" t="n">
-        <v>837134000000</v>
-      </c>
-      <c r="M58" t="n">
-        <v>868717000000</v>
-      </c>
-      <c r="N58" t="n">
-        <v>987493000000</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1143212000000</v>
-      </c>
-      <c r="P58" t="n">
         <v>1130577000000</v>
       </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -2877,50 +2639,42 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>358175116000000</v>
+        <v>418748315000000</v>
       </c>
       <c r="C68" t="n">
-        <v>383514439000000</v>
+        <v>444530104000000</v>
       </c>
       <c r="D68" t="n">
-        <v>387396053000000</v>
+        <v>449514732000000</v>
       </c>
       <c r="E68" t="n">
-        <v>396760420000000</v>
+        <v>471275438000000</v>
       </c>
       <c r="F68" t="n">
-        <v>418748315000000</v>
+        <v>479308753000000</v>
       </c>
       <c r="G68" t="n">
-        <v>444530104000000</v>
+        <v>527769944000000</v>
       </c>
       <c r="H68" t="n">
-        <v>449514732000000</v>
+        <v>528636428000000</v>
       </c>
       <c r="I68" t="n">
-        <v>471275438000000</v>
+        <v>543736728000000</v>
       </c>
       <c r="J68" t="n">
-        <v>479308753000000</v>
+        <v>561113724000000</v>
       </c>
       <c r="K68" t="n">
-        <v>527769944000000</v>
+        <v>607875185000000</v>
       </c>
       <c r="L68" t="n">
-        <v>528636428000000</v>
-      </c>
-      <c r="M68" t="n">
-        <v>543736728000000</v>
-      </c>
-      <c r="N68" t="n">
-        <v>561113724000000</v>
-      </c>
-      <c r="O68" t="n">
-        <v>607875185000000</v>
-      </c>
-      <c r="P68" t="n">
         <v>611223523000000</v>
       </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -2936,22 +2690,22 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="I69" t="n">
         <v>565000000</v>
       </c>
-      <c r="N69" t="n">
+      <c r="J69" t="n">
         <v>34000000</v>
       </c>
-      <c r="O69" t="n">
+      <c r="K69" t="n">
         <v>505876000000</v>
       </c>
-      <c r="P69" t="n">
+      <c r="L69" t="n">
         <v>6110000000</v>
       </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -3168,50 +2922,42 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>8628094000000</v>
+        <v>17961521000000</v>
       </c>
       <c r="C79" t="n">
-        <v>19248572000000</v>
+        <v>23875242000000</v>
       </c>
       <c r="D79" t="n">
-        <v>13433213000000</v>
+        <v>20335604000000</v>
       </c>
       <c r="E79" t="n">
-        <v>2366296000000</v>
+        <v>27085956000000</v>
       </c>
       <c r="F79" t="n">
-        <v>17961521000000</v>
+        <v>20324174000000</v>
       </c>
       <c r="G79" t="n">
-        <v>23875242000000</v>
+        <v>54393939000000</v>
       </c>
       <c r="H79" t="n">
-        <v>20335604000000</v>
+        <v>44323457000000</v>
       </c>
       <c r="I79" t="n">
-        <v>27085956000000</v>
+        <v>50712628000000</v>
       </c>
       <c r="J79" t="n">
-        <v>20324174000000</v>
+        <v>51830484000000</v>
       </c>
       <c r="K79" t="n">
-        <v>54393939000000</v>
+        <v>67840840000000</v>
       </c>
       <c r="L79" t="n">
-        <v>44323457000000</v>
-      </c>
-      <c r="M79" t="n">
-        <v>50712628000000</v>
-      </c>
-      <c r="N79" t="n">
-        <v>51830484000000</v>
-      </c>
-      <c r="O79" t="n">
-        <v>67840840000000</v>
-      </c>
-      <c r="P79" t="n">
         <v>52857299000000</v>
       </c>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -3221,50 +2967,42 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7671375000000</v>
+        <v>16864702000000</v>
       </c>
       <c r="C80" t="n">
-        <v>16673949000000</v>
+        <v>15081349000000</v>
       </c>
       <c r="D80" t="n">
-        <v>8751397000000</v>
+        <v>12716189000000</v>
       </c>
       <c r="E80" t="n">
-        <v>1206761000000</v>
+        <v>23163325000000</v>
       </c>
       <c r="F80" t="n">
-        <v>16864702000000</v>
+        <v>15590716000000</v>
       </c>
       <c r="G80" t="n">
-        <v>15081349000000</v>
+        <v>41380571000000</v>
       </c>
       <c r="H80" t="n">
-        <v>12716189000000</v>
+        <v>33738728000000</v>
       </c>
       <c r="I80" t="n">
-        <v>23163325000000</v>
+        <v>47406328000000</v>
       </c>
       <c r="J80" t="n">
-        <v>15590716000000</v>
+        <v>45532365000000</v>
       </c>
       <c r="K80" t="n">
-        <v>41380571000000</v>
+        <v>60002732000000</v>
       </c>
       <c r="L80" t="n">
-        <v>33738728000000</v>
-      </c>
-      <c r="M80" t="n">
-        <v>47406328000000</v>
-      </c>
-      <c r="N80" t="n">
-        <v>45532365000000</v>
-      </c>
-      <c r="O80" t="n">
-        <v>60002732000000</v>
-      </c>
-      <c r="P80" t="n">
         <v>49413866000000</v>
       </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -3274,50 +3012,42 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>956719000000</v>
+        <v>1096819000000</v>
       </c>
       <c r="C81" t="n">
-        <v>2574623000000</v>
+        <v>8793893000000</v>
       </c>
       <c r="D81" t="n">
-        <v>4681816000000</v>
+        <v>7619415000000</v>
       </c>
       <c r="E81" t="n">
-        <v>1159535000000</v>
+        <v>3922631000000</v>
       </c>
       <c r="F81" t="n">
-        <v>1096819000000</v>
+        <v>4733458000000</v>
       </c>
       <c r="G81" t="n">
-        <v>8793893000000</v>
+        <v>13013368000000</v>
       </c>
       <c r="H81" t="n">
-        <v>7619415000000</v>
+        <v>10584729000000</v>
       </c>
       <c r="I81" t="n">
-        <v>3922631000000</v>
+        <v>3306300000000</v>
       </c>
       <c r="J81" t="n">
-        <v>4733458000000</v>
+        <v>6298119000000</v>
       </c>
       <c r="K81" t="n">
-        <v>13013368000000</v>
+        <v>7838108000000</v>
       </c>
       <c r="L81" t="n">
-        <v>10584729000000</v>
-      </c>
-      <c r="M81" t="n">
-        <v>3306300000000</v>
-      </c>
-      <c r="N81" t="n">
-        <v>6298119000000</v>
-      </c>
-      <c r="O81" t="n">
-        <v>7838108000000</v>
-      </c>
-      <c r="P81" t="n">
         <v>3443433000000</v>
       </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -3373,50 +3103,42 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>298007119000000</v>
+        <v>334729380000000</v>
       </c>
       <c r="C84" t="n">
-        <v>308129391000000</v>
+        <v>353195838000000</v>
       </c>
       <c r="D84" t="n">
-        <v>312653631000000</v>
+        <v>352217653000000</v>
       </c>
       <c r="E84" t="n">
-        <v>330551052000000</v>
+        <v>358474148000000</v>
       </c>
       <c r="F84" t="n">
-        <v>334729380000000</v>
+        <v>365770473000000</v>
       </c>
       <c r="G84" t="n">
-        <v>353195838000000</v>
+        <v>379920669000000</v>
       </c>
       <c r="H84" t="n">
-        <v>352217653000000</v>
+        <v>386050921000000</v>
       </c>
       <c r="I84" t="n">
-        <v>358474148000000</v>
+        <v>388131932000000</v>
       </c>
       <c r="J84" t="n">
-        <v>365770473000000</v>
+        <v>392023517000000</v>
       </c>
       <c r="K84" t="n">
-        <v>379920669000000</v>
+        <v>413952789000000</v>
       </c>
       <c r="L84" t="n">
-        <v>386050921000000</v>
-      </c>
-      <c r="M84" t="n">
-        <v>388131932000000</v>
-      </c>
-      <c r="N84" t="n">
-        <v>392023517000000</v>
-      </c>
-      <c r="O84" t="n">
-        <v>413952789000000</v>
-      </c>
-      <c r="P84" t="n">
         <v>422755092000000</v>
       </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -3634,9 +3356,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="n">
-        <v>19288000000</v>
-      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
@@ -3727,50 +3447,42 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>332810807000000</v>
+        <v>385829347000000</v>
       </c>
       <c r="C98" t="n">
-        <v>355761932000000</v>
+        <v>409081941000000</v>
       </c>
       <c r="D98" t="n">
-        <v>357983688000000</v>
+        <v>411585397000000</v>
       </c>
       <c r="E98" t="n">
-        <v>365927975000000</v>
+        <v>430895193000000</v>
       </c>
       <c r="F98" t="n">
-        <v>385829347000000</v>
+        <v>436825317000000</v>
       </c>
       <c r="G98" t="n">
-        <v>409081941000000</v>
+        <v>482869035000000</v>
       </c>
       <c r="H98" t="n">
-        <v>411585397000000</v>
+        <v>480433095000000</v>
       </c>
       <c r="I98" t="n">
-        <v>430895193000000</v>
+        <v>491670697000000</v>
       </c>
       <c r="J98" t="n">
-        <v>436825317000000</v>
+        <v>505378993000000</v>
       </c>
       <c r="K98" t="n">
-        <v>482869035000000</v>
+        <v>549436522000000</v>
       </c>
       <c r="L98" t="n">
-        <v>480433095000000</v>
-      </c>
-      <c r="M98" t="n">
-        <v>491670697000000</v>
-      </c>
-      <c r="N98" t="n">
-        <v>505378993000000</v>
-      </c>
-      <c r="O98" t="n">
-        <v>549436522000000</v>
-      </c>
-      <c r="P98" t="n">
         <v>548693358000000</v>
       </c>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -3803,50 +3515,42 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>16627373000000</v>
+        <v>21615585000000</v>
       </c>
       <c r="C100" t="n">
-        <v>16627373000000</v>
+        <v>21615585000000</v>
       </c>
       <c r="D100" t="n">
-        <v>16627373000000</v>
+        <v>21615585000000</v>
       </c>
       <c r="E100" t="n">
-        <v>16627373000000</v>
+        <v>21615585000000</v>
       </c>
       <c r="F100" t="n">
-        <v>21615585000000</v>
+        <v>27019481000000</v>
       </c>
       <c r="G100" t="n">
-        <v>21615585000000</v>
+        <v>27019481000000</v>
       </c>
       <c r="H100" t="n">
-        <v>21615585000000</v>
+        <v>27019481000000</v>
       </c>
       <c r="I100" t="n">
-        <v>21615585000000</v>
+        <v>27019481000000</v>
       </c>
       <c r="J100" t="n">
-        <v>27019481000000</v>
+        <v>33774351000000</v>
       </c>
       <c r="K100" t="n">
-        <v>27019481000000</v>
+        <v>33774351000000</v>
       </c>
       <c r="L100" t="n">
-        <v>27019481000000</v>
-      </c>
-      <c r="M100" t="n">
-        <v>27019481000000</v>
-      </c>
-      <c r="N100" t="n">
         <v>33774351000000</v>
       </c>
-      <c r="O100" t="n">
-        <v>33774351000000</v>
-      </c>
-      <c r="P100" t="n">
-        <v>33774351000000</v>
-      </c>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -3924,7 +3628,9 @@
           <t>3. Quyền chọn chuyển đổi trái phiếu</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
+      <c r="B104" t="n">
+        <v>271779000000</v>
+      </c>
       <c r="C104" t="n">
         <v>271779000000</v>
       </c>
@@ -3955,18 +3661,10 @@
       <c r="L104" t="n">
         <v>271779000000</v>
       </c>
-      <c r="M104" t="n">
-        <v>271779000000</v>
-      </c>
-      <c r="N104" t="n">
-        <v>271779000000</v>
-      </c>
-      <c r="O104" t="n">
-        <v>271779000000</v>
-      </c>
-      <c r="P104" t="n">
-        <v>271779000000</v>
-      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -3975,12 +3673,8 @@
           <t>4. Vốn khác của chủ sở hữu</t>
         </is>
       </c>
-      <c r="B105" t="n">
-        <v>-1434000000</v>
-      </c>
-      <c r="C105" t="n">
-        <v>-99981000000</v>
-      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
@@ -4117,49 +3811,43 @@
           <t>10. Quỹ khác thuộc vốn chủ sở hữu</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
+      <c r="B111" t="n">
+        <v>4595981000000</v>
+      </c>
       <c r="C111" t="n">
-        <v>4613420000000</v>
+        <v>5741759000000</v>
       </c>
       <c r="D111" t="n">
-        <v>4595981000000</v>
+        <v>5742084000000</v>
       </c>
       <c r="E111" t="n">
-        <v>4595981000000</v>
+        <v>5742084000000</v>
       </c>
       <c r="F111" t="n">
-        <v>4595981000000</v>
+        <v>5742084000000</v>
       </c>
       <c r="G111" t="n">
-        <v>5741759000000</v>
+        <v>7164297000000</v>
       </c>
       <c r="H111" t="n">
-        <v>5742084000000</v>
+        <v>7164297000000</v>
       </c>
       <c r="I111" t="n">
-        <v>5742084000000</v>
+        <v>7164297000000</v>
       </c>
       <c r="J111" t="n">
-        <v>5742084000000</v>
+        <v>7164297000000</v>
       </c>
       <c r="K111" t="n">
-        <v>7164297000000</v>
+        <v>9220125000000</v>
       </c>
       <c r="L111" t="n">
-        <v>7164297000000</v>
-      </c>
-      <c r="M111" t="n">
-        <v>7164297000000</v>
-      </c>
-      <c r="N111" t="n">
-        <v>7164297000000</v>
-      </c>
-      <c r="O111" t="n">
-        <v>9220125000000</v>
-      </c>
-      <c r="P111" t="n">
         <v>9220106000000</v>
       </c>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
       <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
@@ -4283,41 +3971,37 @@
           <t>II. Nguồn kinh phí và quỹ khác</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>20348000000</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>9972000000</v>
+        <v>-2229000000</v>
       </c>
       <c r="E117" t="n">
-        <v>8397000000</v>
+        <v>10446000000</v>
       </c>
       <c r="F117" t="n">
-        <v>20348000000</v>
+        <v>11022000000</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>-2229000000</v>
+        <v>14889000000</v>
       </c>
       <c r="I117" t="n">
-        <v>10446000000</v>
+        <v>84439000000</v>
       </c>
       <c r="J117" t="n">
-        <v>11022000000</v>
+        <v>166147000000</v>
       </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
-        <v>14889000000</v>
-      </c>
-      <c r="M117" t="n">
-        <v>84439000000</v>
-      </c>
-      <c r="N117" t="n">
-        <v>166147000000</v>
-      </c>
+        <v>-43527000000</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
-      <c r="P117" t="n">
-        <v>-43527000000</v>
-      </c>
+      <c r="P117" t="inlineStr"/>
       <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
